--- a/data/students_email_dictionary_for_zoom_data.xlsx
+++ b/data/students_email_dictionary_for_zoom_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -381,888 +381,728 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>YUXIAO WANG</t>
+          <t>Odemuno Ogelohwohor</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>yuw029@ucsd.edu</t>
+          <t>oogelohw@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>ADIB MAZLOOM</t>
+          <t>Aaron(tutor) Shi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>admazloo@ucsd.edu</t>
+          <t>xis115@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Nathan Ng</t>
+          <t>Timothy Tyree</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>n3ng@ucsd.edu</t>
+          <t>tttyree@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Colleen Choi</t>
+          <t>Adib Mazloom</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>c3choi@ucsd.edu</t>
+          <t>admazloo@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RAINI WU</t>
+          <t>Tianran Qiu</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ryw003@ucsd.edu</t>
+          <t>tiq004@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Lilliana Nguyen</t>
+          <t>marvin julian-coche</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>llnguyen@ucsd.edu</t>
+          <t>mjulianc@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Jiangjun Yu</t>
+          <t>Michael Gigoux</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jiy038@ucsd.edu</t>
+          <t>mgigoux@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Stella</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>Yufei Deng</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>y9deng@ucsd.edu</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>kellyl</t>
+          <t>Tai Nguyen</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>klumaqui@ucsd.edu</t>
+          <t>tan005@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Aaron(tutor) Shi</t>
+          <t>KRISTEN ROSENBERG</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>xis115@ucsd.edu</t>
+          <t>kfrosenb@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Kirari McNulty</t>
+          <t>Yingxue Pan</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>kwmcnult@ucsd.edu</t>
+          <t>y9pan@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Parker Côté</t>
+          <t>ETHAN STEPHENSON</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pcote@ucsd.edu</t>
+          <t>ejstephe@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>FENGDI ZHANG</t>
+          <t>Andy Lin</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>f1zhang@ucsd.edu</t>
+          <t>allin@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Marvin Julian-Coche</t>
+          <t>Katada Siraj</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>mjulianc@ucsd.edu</t>
+          <t>ksiraj@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Jason Isa</t>
+          <t>Alia Victoria Jackson</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jisa@ucsd.edu</t>
+          <t>avjackso@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Landi Guo</t>
+          <t>Mani Amani</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>lguo@ucsd.edu</t>
+          <t>mamani@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Emily Dai</t>
+          <t>Timothy Tyree</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>emdai@ucsd.edu</t>
+          <t>tttyree@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Young Yoon Choi</t>
+          <t>Keyi Dong</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>yyc023@ucsd.edu</t>
+          <t>k1dong@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Joshua Kim</t>
+          <t>Yongheng Ouyang</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>dykim@ucsd.edu</t>
+          <t>ymouyang@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Keyi Dong</t>
+          <t>Dillon Celebrado</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>k1dong@ucsd.edu</t>
+          <t>dcelebra@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Valentina Muti</t>
+          <t>Tai Nguyen</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>vmuti@ucsd.edu</t>
+          <t>tan005@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Kent Snyder</t>
+          <t>Nathan Bonde</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>kjsnyder@ucsd.edu</t>
+          <t>nbonde@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Dillon Celebrado</t>
+          <t>Yingxue Pan</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>dcelebra@ucsd.edu</t>
+          <t>y9pan@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Zhetai Zhou</t>
+          <t>Jason Isa</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>z2zhou@ucsd.edu</t>
+          <t>jisa@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Sophia Han</t>
+          <t>Aaron(tutor) Shi</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>s7han@ucsd.edu</t>
+          <t>xis115@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Alberto Garcia</t>
+          <t>Kenny Peng</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ajgarcia@ucsd.edu</t>
+          <t>kep005@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Katada</t>
+          <t>Yingxue Pan</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ksiraj@ucsd.edu</t>
+          <t>y9pan@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Huiying</t>
+          <t>Tai Nguyen</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>hquan@ucsd.edu</t>
+          <t>tan005@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>kennethwah</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
+          <t>Timothy Tyree</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>tttyree@ucsd.edu</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Yufei Deng</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>mgigoux@ucsd.edu</t>
+          <t>y9deng@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Ryan Merchen</t>
+          <t>Mani Amani</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>rmerchen@ucsd.edu</t>
+          <t>mamani@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Jonathan Van-hyning</t>
+          <t>Aaron(tutor) Shi</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>jvanhyni@ucsd.edu</t>
+          <t>xis115@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Anael Castellanos</t>
+          <t>Timothy Tyree</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>anc250@ucsd.edu</t>
+          <t>tttyree@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Mani Amani</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
+          <t>Aaron(tutor) Shi</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>xis115@ucsd.edu</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Erica Peng</t>
+          <t>Yufei Deng</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>f1peng@ucsd.edu</t>
+          <t>y9deng@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Nathan Bonde</t>
+          <t>MARVIN JULIAN COCHE</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>nbonde@ucsd.edu</t>
+          <t>mjuliancoche@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Jordyn Nicole Ohashi</t>
+          <t>Mani Amani</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>johashi@ucsd.edu</t>
+          <t>mamani@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Lu Yue Wang</t>
+          <t>Tai Nguyen</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>lyw001@ucsd.edu</t>
+          <t>tan005@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>James Riddell</t>
+          <t>Yingxue Pan</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>jariddel@ucsd.edu</t>
+          <t>y9pan@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Yingxue Pan</t>
+          <t>ZIQI YU</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>y9pan@ucsd.edu</t>
+          <t>ziy007@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>JINXU ZHOU</t>
+          <t>Valentina Muti</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>jiz042@ucsd.edu</t>
+          <t>vmuti@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Kyle Gierden</t>
+          <t>Israel Arambulo</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>kgierden@ucsd.edu</t>
+          <t>iarambul@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Adrian de Almenara</t>
+          <t>ZIQI YU</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>adealmen@ucsd.edu</t>
+          <t>ziy007@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Joshua Koo</t>
+          <t>Muno Ogelohwohor</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>jkoo@ucsd.edu</t>
+          <t>oogelohw@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>LAURA JIAN</t>
+          <t>Yufei Deng</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ljian@ucsd.edu</t>
+          <t>y9deng@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Kenny Peng</t>
+          <t>Yingxue Pan</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>kep005@ucsd.edu</t>
+          <t>y9pan@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Claire Garlington</t>
+          <t>Joshua Koo</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>cgarling@ucsd.edu</t>
+          <t>jkoo@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Tyler Shaver</t>
+          <t>Gordon Peiker</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>trshaver@ucsd.edu</t>
+          <t>gpeiker@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Tai Nguyen</t>
+          <t>Siyi Gao</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>tan005@ucsd.edu</t>
+          <t>sgao@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Anna Poon</t>
+          <t>Tai Nguyen</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>apoon@ucsd.edu</t>
+          <t>tan005@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Amanda</t>
+          <t>MARVIN JULIAN COCHE</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>asabado@ucsd.edu</t>
+          <t>mjuliancoche@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>MATTHEW GARCIA</t>
+          <t>Aaron Shi</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>mrg004@ucsd.edu</t>
+          <t>xis115@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>bthang@ucsd.edu</t>
+          <t>Timothy Tyree</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>bthang@ucsd.edu</t>
+          <t>tttyree@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Ruixiao Liu</t>
+          <t>MARVIN JULIAN COCHE</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>r1liu@ucsd.edu</t>
+          <t>mjuliancoche@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Megan Mach</t>
+          <t>Timothy Tyree</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>mmach@ucsd.edu</t>
+          <t>tttyree@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>DAVID CHEN</t>
+          <t>Tai Nguyen</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>dtc001@ucsd.edu</t>
+          <t>tan005@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Connor Lennan</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>clennan@ucsd.edu</t>
-        </is>
-      </c>
+          <t>Joshua</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Yongheng Ouyang</t>
+          <t>Aaron Shi</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ymouyang@ucsd.edu</t>
+          <t>xis115@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Yaosen Zhang</t>
+          <t>Yufei Deng</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>yaz001@ucsd.edu</t>
+          <t>y9deng@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Jessica Hurtado</t>
+          <t>Yingxue Pan</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>jmhurtad@ucsd.edu</t>
+          <t>y9pan@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Matthew Lutz-Paap</t>
+          <t>ZIQI YU</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>mlutzpaa@ucsd.edu</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>JASON CAI</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>jacai@ucsd.edu</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Dylan Snelson</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>dsnelson@ucsd.edu</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Shiyi Li</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>shl006@ucsd.edu</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>THAO BUI</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>tbui@ucsd.edu</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>Nathan Nhuan Vu</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>ndvu@ucsd.edu</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>Hope Do</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>hdo@ucsd.edu</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>Nicholas Fries</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>nfries@ucsd.edu</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Alia Jackson</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>avjackso@ucsd.edu</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Gordon Peiker</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>gpeiker@ucsd.edu</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Bowen</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>bol004@ucsd.edu</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Nhung (Jessica) Nguyen</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>nnguyen@ucsd.edu</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Siyi Gao</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>sgao@ucsd.edu</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Juan Jayat</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>jjayat@ucsd.edu</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Jinwoong Huh</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>j2huh@ucsd.edu</t>
+          <t>ziy007@ucsd.edu</t>
         </is>
       </c>
     </row>

--- a/data/students_email_dictionary_for_zoom_data.xlsx
+++ b/data/students_email_dictionary_for_zoom_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,56 +1053,516 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Joshua</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
+          <t>Aaron Shi</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>xis115@ucsd.edu</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Aaron Shi</t>
+          <t>Yufei Deng</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>xis115@ucsd.edu</t>
+          <t>y9deng@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Yufei Deng</t>
+          <t>Yingxue Pan</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>y9deng@ucsd.edu</t>
+          <t>y9pan@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Yingxue Pan</t>
+          <t>ZIQI YU</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>y9pan@ucsd.edu</t>
+          <t>ziy007@ucsd.edu</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
+          <t>Tai Nguyen</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>tan005@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>MARVIN JULIAN COCHE</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>mjuliancoche@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
           <t>ZIQI YU</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>ziy007@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Mani Amani</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>mamani@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Nik Sullins</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>nsullins@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Aaron Shi</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>xis115@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Alison Stotts</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>astotts@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Timothy Tyree</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>tttyree@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Yingxue Pan</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>y9pan@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Mani Amani</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>mamani@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Aaron Shi</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>xis115@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>ZIQI YU</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ziy007@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Timothy Tyree</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>tttyree@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Yingxue Pan</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>y9pan@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Tai Nguyen</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>tan005@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Alison Stotts</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>astotts@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>MARVIN JULIAN COCHE</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>mjuliancoche@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Yingxue Pan</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>y9pan@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Alison Stotts</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>astotts@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>ZIQI YU</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ziy007@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Aaron Shi</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>xis115@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>MARVIN JULIAN COCHE</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>mjuliancoche@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Timothy Tyree</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>tttyree@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Yufei Deng</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>y9deng@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Tai Nguyen</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>tan005@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Aaron Shi</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>xis115@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>Yingxue Pan</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>y9pan@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Yuyang Wu</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>yuw073@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>JINXU ZHOU</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>jiz042@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>Yufei Deng</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>y9deng@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>ZIQI YU</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ziy007@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>MARVIN JULIAN COCHE</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>mjuliancoche@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>Timothy Tyree</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>tttyree@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>Yingxue Pan</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>y9pan@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>Aaron Shi</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>xis115@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>MARVIN JULIAN COCHE</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>mjuliancoche@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>ZIQI YU</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ziy007@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>Yufei Deng</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>y9deng@ucsd.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>Timothy Tyree</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>tttyree@ucsd.edu</t>
         </is>
       </c>
     </row>
